--- a/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/Table21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb154/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84CC606-A967-294C-B8AD-6F543C9A2B46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B4D7EE-8DB1-5E42-9FF4-AD4E000163D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20520" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,13 +1243,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D45" s="3">
         <v>79613750</v>
